--- a/prir/openmp/lab1/Wykresy.xlsx
+++ b/prir/openmp/lab1/Wykresy.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateu\Documents\Git\studia\prir\openmp\lab1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\studia\prir\openmp\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2635F6F7-72F6-4D71-A400-C24AAB2EE54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EA8FB7-6FAF-4531-A8B4-8CA52947B323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{9A0047C8-A4CC-45CB-96F6-9B4825D65A00}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{9A0047C8-A4CC-45CB-96F6-9B4825D65A00}"/>
   </bookViews>
   <sheets>
     <sheet name="4" sheetId="1" r:id="rId1"/>
     <sheet name="5" sheetId="2" r:id="rId2"/>
     <sheet name="8" sheetId="3" r:id="rId3"/>
+    <sheet name="9" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
   <si>
     <t>a</t>
   </si>
@@ -76,6 +77,9 @@
   </si>
   <si>
     <t>N: 4, M: 3, P: 3</t>
+  </si>
+  <si>
+    <t>% zmiany</t>
   </si>
 </sst>
 </file>
@@ -820,11 +824,20 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pl-PL"/>
-              <a:t>Czas</a:t>
+              <a:t>Czas pracy algorytmu względe</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> wykonania algorytmu względem zastosowanej strategii lub braku równoległości </a:t>
+              <a:t>m strategii przydzielania wątków lub braku równoległości</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t>zewnętrzna pętla</a:t>
             </a:r>
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
@@ -923,23 +936,23 @@
                   <c:v>9.9999999999999995E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0179999999999998E-3</c:v>
+                  <c:v>7.2800000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3434E-2</c:v>
+                  <c:v>1.7060000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.8039999999999993E-3</c:v>
+                  <c:v>6.1200000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3434E-2</c:v>
+                  <c:v>9.2100000000000005E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-265D-49A5-B7BC-79D63020415F}"/>
+              <c16:uniqueId val="{00000000-E75E-4849-8017-CF050AB13DEB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1000,23 +1013,23 @@
                   <c:v>1.4E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.6550000000000004E-3</c:v>
+                  <c:v>1.807E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.438E-2</c:v>
+                  <c:v>1.5319999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.221E-2</c:v>
+                  <c:v>1.7750000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4961E-2</c:v>
+                  <c:v>7.7200000000000001E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-265D-49A5-B7BC-79D63020415F}"/>
+              <c16:uniqueId val="{00000001-E75E-4849-8017-CF050AB13DEB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1077,23 +1090,23 @@
                   <c:v>3.9999999999999998E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8459999999999997E-3</c:v>
+                  <c:v>7.7399999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2893999999999999E-2</c:v>
+                  <c:v>7.36E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.8720000000000005E-3</c:v>
+                  <c:v>7.1500000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0850000000000001E-3</c:v>
+                  <c:v>7.54E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-265D-49A5-B7BC-79D63020415F}"/>
+              <c16:uniqueId val="{00000002-E75E-4849-8017-CF050AB13DEB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1107,11 +1120,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="150527792"/>
-        <c:axId val="150529456"/>
+        <c:axId val="253762304"/>
+        <c:axId val="253764384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="150527792"/>
+        <c:axId val="253762304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1154,7 +1167,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150529456"/>
+        <c:crossAx val="253764384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1162,7 +1175,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150529456"/>
+        <c:axId val="253764384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1213,7 +1226,513 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150527792"/>
+        <c:crossAx val="253762304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Czas pracy algorytmu względe</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t>m strategii przydzielania wątków lub braku równoległości</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t>wewnętrzna pętla</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N: 4, M: 3, P: 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'9'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>b</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>c</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>d</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'9'!$C$2:$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.6999999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3500000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8199999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2900000000000005E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6B0B-45B1-ABCB-78CBCFFC344A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N: 16, M: 12, P: 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'9'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>b</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>c</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>d</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'9'!$C$3:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.665E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.91E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.766E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1599999999999995E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6B0B-45B1-ABCB-78CBCFFC344A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'9'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N: 10, M: 8, P: 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'9'!$C$1:$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>b</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>c</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>d</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'9'!$C$4:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.7999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3400000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.7100000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3999999999999999E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6B0B-45B1-ABCB-78CBCFFC344A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="253762304"/>
+        <c:axId val="253764384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="253762304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="253764384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="253764384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="253762304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1420,6 +1939,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2427,6 +2986,509 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3018,24 +4080,67 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Wykres 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA1F4485-2A17-4563-8CE4-B17C1974E8F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Wykres 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5AF4D5C-A537-40AA-B603-9BB0366B9850}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F96B0CC2-EAC7-454C-B705-D452899A0D8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3352,7 +4457,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3405,23 +4510,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E5683A6-D798-44AF-B2A4-24F5D1F7F597}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3429,12 +4537,16 @@
         <v>1.9710999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3">
         <v>5.6730000000000001E-3</v>
+      </c>
+      <c r="C3">
+        <f>(B2-B3)/B2</f>
+        <v>0.7121911622951651</v>
       </c>
     </row>
   </sheetData>
@@ -3447,8 +4559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61864B62-7382-4C1B-A5E6-C83B46CE532F}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3484,16 +4596,16 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="C2">
-        <v>3.0179999999999998E-3</v>
+        <v>7.2800000000000002E-4</v>
       </c>
       <c r="D2">
-        <v>1.3434E-2</v>
+        <v>1.7060000000000001E-3</v>
       </c>
       <c r="E2">
-        <v>8.8039999999999993E-3</v>
+        <v>6.1200000000000002E-4</v>
       </c>
       <c r="F2">
-        <v>1.3434E-2</v>
+        <v>9.2100000000000005E-4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3504,16 +4616,16 @@
         <v>1.4E-5</v>
       </c>
       <c r="C3">
-        <v>9.6550000000000004E-3</v>
+        <v>1.807E-3</v>
       </c>
       <c r="D3">
-        <v>1.438E-2</v>
+        <v>1.5319999999999999E-3</v>
       </c>
       <c r="E3">
-        <v>1.221E-2</v>
+        <v>1.7750000000000001E-3</v>
       </c>
       <c r="F3">
-        <v>1.4961E-2</v>
+        <v>7.7200000000000001E-4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3524,16 +4636,115 @@
         <v>3.9999999999999998E-6</v>
       </c>
       <c r="C4">
-        <v>6.8459999999999997E-3</v>
+        <v>7.7399999999999995E-4</v>
       </c>
       <c r="D4">
-        <v>1.2893999999999999E-2</v>
+        <v>7.36E-4</v>
       </c>
       <c r="E4">
-        <v>7.8720000000000005E-3</v>
+        <v>7.1500000000000003E-4</v>
       </c>
       <c r="F4">
-        <v>6.0850000000000001E-3</v>
+        <v>7.54E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE377AF4-B097-4ED0-AA40-A6F623FB5EBE}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="C2">
+        <v>7.6999999999999996E-4</v>
+      </c>
+      <c r="D2">
+        <v>6.3500000000000004E-4</v>
+      </c>
+      <c r="E2">
+        <v>6.8199999999999999E-4</v>
+      </c>
+      <c r="F2">
+        <v>7.2900000000000005E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>1.4E-5</v>
+      </c>
+      <c r="C3">
+        <v>1.665E-3</v>
+      </c>
+      <c r="D3">
+        <v>1.91E-3</v>
+      </c>
+      <c r="E3">
+        <v>1.766E-3</v>
+      </c>
+      <c r="F3">
+        <v>7.1599999999999995E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="C4">
+        <v>7.7999999999999999E-4</v>
+      </c>
+      <c r="D4">
+        <v>6.3400000000000001E-4</v>
+      </c>
+      <c r="E4">
+        <v>6.7100000000000005E-4</v>
+      </c>
+      <c r="F4">
+        <v>7.3999999999999999E-4</v>
       </c>
     </row>
   </sheetData>
